--- a/SAP UserID Maker.xlsx
+++ b/SAP UserID Maker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520D3D01-EBC6-46D4-B4C1-647E3C932616}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE33C5ED-BDB9-4958-B1E5-529CB42472A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32565" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,9 +367,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,6 +385,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -398,11 +398,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -693,7 +693,7 @@
   <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:X61"/>
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,41 +836,41 @@
         <f>IF(EXACT(UPPER(B6),"M_OPS_DSPC_P"),330,IF(EXACT(UPPER(B6),"M_OPS_DSPC_C"),320,IF(EXACT(UPPER(B6),"M_OPS_DSPC_W"),340,"INVALID")))</f>
         <v>INVALID</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="18" t="s">
         <v>0</v>
       </c>
@@ -931,19 +931,19 @@
       <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="str">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="str">
         <f>IFERROR(LEFT(PROPER(A8),SEARCH(" ",A8,1))," ")</f>
         <v xml:space="preserve">John </v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="str">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(A8),J8,""),E8,""), "-", ""), "REHIRE",""), "rehire", ""),"Rehire", "")</f>
         <v xml:space="preserve">Doe    </v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="9" t="str">
         <f ca="1">_xlfn.CONCAT(E8,G8)</f>
         <v xml:space="preserve">John Doe    </v>
@@ -997,20 +997,20 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16" t="str">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15" t="str">
         <f t="shared" ref="E9:E55" si="0">IFERROR(LEFT(PROPER(A9),SEARCH(" ",A9,1))," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="str">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="str">
         <f t="shared" ref="G9:G55" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(A9),J9,""),E9,""), "-", ""), "REHIRE",""), "rehire", ""),"Rehire", "")</f>
         <v/>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="9" t="str">
         <f t="shared" ref="I9:I55" ca="1" si="2">_xlfn.CONCAT(E9,G9)</f>
         <v xml:space="preserve"> </v>
@@ -1063,19 +1063,19 @@
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="15"/>
       <c r="I10" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1127,20 +1127,20 @@
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="16"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="15"/>
       <c r="I11" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1192,20 +1192,20 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H12" s="16"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="15"/>
       <c r="I12" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1257,20 +1257,20 @@
       <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H13" s="16"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="15"/>
       <c r="I13" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1322,20 +1322,20 @@
       <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H14" s="16"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="15"/>
       <c r="I14" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1387,20 +1387,20 @@
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H15" s="16"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="15"/>
       <c r="I15" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1452,20 +1452,20 @@
       <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H16" s="16"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1517,20 +1517,20 @@
       <c r="AA16" s="5"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="16"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="15"/>
       <c r="I17" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1582,20 +1582,20 @@
       <c r="AA17" s="5"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="16"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="15"/>
       <c r="I18" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1647,20 +1647,20 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H19" s="16"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="15"/>
       <c r="I19" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1712,20 +1712,20 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="16"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="15"/>
       <c r="I20" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1777,20 +1777,20 @@
       <c r="AA20" s="5"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="16"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="15"/>
       <c r="I21" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1842,20 +1842,20 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" s="16"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="15"/>
       <c r="I22" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1907,20 +1907,20 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="16"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="15"/>
       <c r="I23" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1972,20 +1972,20 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="16"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="15"/>
       <c r="I24" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2037,20 +2037,20 @@
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="16"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="15"/>
       <c r="I25" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2102,20 +2102,20 @@
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H26" s="16"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H26" s="15"/>
       <c r="I26" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2167,20 +2167,20 @@
       <c r="AA26" s="5"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H27" s="16"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" s="15"/>
       <c r="I27" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2232,20 +2232,20 @@
       <c r="AA27" s="5"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H28" s="16"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H28" s="15"/>
       <c r="I28" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2297,20 +2297,20 @@
       <c r="AA28" s="5"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H29" s="16"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" s="15"/>
       <c r="I29" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2362,20 +2362,20 @@
       <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H30" s="16"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" s="15"/>
       <c r="I30" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2427,20 +2427,20 @@
       <c r="AA30" s="5"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H31" s="16"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" s="15"/>
       <c r="I31" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2492,20 +2492,20 @@
       <c r="AA31" s="5"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H32" s="16"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" s="15"/>
       <c r="I32" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2557,20 +2557,20 @@
       <c r="AA32" s="5"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H33" s="16"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H33" s="15"/>
       <c r="I33" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2622,20 +2622,20 @@
       <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H34" s="16"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H34" s="15"/>
       <c r="I34" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2687,20 +2687,20 @@
       <c r="AA34" s="5"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H35" s="16"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H35" s="15"/>
       <c r="I35" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2752,20 +2752,20 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H36" s="16"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H36" s="15"/>
       <c r="I36" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2817,20 +2817,20 @@
       <c r="AA36" s="5"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H37" s="16"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H37" s="15"/>
       <c r="I37" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2882,20 +2882,20 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H38" s="16"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H38" s="15"/>
       <c r="I38" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -2947,20 +2947,20 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H39" s="16"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H39" s="15"/>
       <c r="I39" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3012,20 +3012,20 @@
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H40" s="16"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H40" s="15"/>
       <c r="I40" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3077,20 +3077,20 @@
       <c r="AA40" s="5"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H41" s="16"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H41" s="15"/>
       <c r="I41" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3142,20 +3142,20 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H42" s="16"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H42" s="15"/>
       <c r="I42" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3207,20 +3207,20 @@
       <c r="AA42" s="5"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H43" s="16"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H43" s="15"/>
       <c r="I43" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3272,20 +3272,20 @@
       <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H44" s="16"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H44" s="15"/>
       <c r="I44" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3337,20 +3337,20 @@
       <c r="AA44" s="5"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H45" s="16"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H45" s="15"/>
       <c r="I45" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3402,20 +3402,20 @@
       <c r="AA45" s="5"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H46" s="16"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H46" s="15"/>
       <c r="I46" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3467,20 +3467,20 @@
       <c r="AA46" s="5"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H47" s="16"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H47" s="15"/>
       <c r="I47" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3532,20 +3532,20 @@
       <c r="AA47" s="5"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H48" s="16"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H48" s="15"/>
       <c r="I48" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3597,20 +3597,20 @@
       <c r="AA48" s="5"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H49" s="16"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H49" s="15"/>
       <c r="I49" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3662,20 +3662,20 @@
       <c r="AA49" s="5"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H50" s="16"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H50" s="15"/>
       <c r="I50" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3727,20 +3727,20 @@
       <c r="AA50" s="5"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H51" s="16"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H51" s="15"/>
       <c r="I51" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3792,20 +3792,20 @@
       <c r="AA51" s="5"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H52" s="16"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H52" s="15"/>
       <c r="I52" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3857,20 +3857,20 @@
       <c r="AA52" s="5"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H53" s="16"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H53" s="15"/>
       <c r="I53" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3922,20 +3922,20 @@
       <c r="AA53" s="5"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H54" s="16"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H54" s="15"/>
       <c r="I54" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -3987,20 +3987,20 @@
       <c r="AA54" s="5"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H55" s="16"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H55" s="15"/>
       <c r="I55" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v xml:space="preserve"> </v>
@@ -4081,154 +4081,155 @@
       <c r="AA56" s="5"/>
     </row>
     <row r="57" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
     <row r="59" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
     </row>
     <row r="60" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
     <row r="61" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
     </row>
     <row r="62" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="QzBOag3Uw59UJm0dEItWVAtE0iVLfIY/KXiC5b4bvYi/2NpJkqbsI6CmA3wdZIxKRNAzLTmmPg2FLU88dOwipw==" saltValue="pDQp7QWJPQVxICjo3W3YIA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="152">
     <mergeCell ref="A1:X4"/>
     <mergeCell ref="A57:X61"/>
@@ -4263,6 +4264,7 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -4287,7 +4289,6 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
@@ -4336,8 +4337,6 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
@@ -4351,8 +4350,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
@@ -4360,6 +4357,8 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="E6:L6"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="A39:D39"/>
@@ -4382,6 +4381,8 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
